--- a/src/main/resources/template/xls_template.xlsx
+++ b/src/main/resources/template/xls_template.xlsx
@@ -4,11 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
@@ -41,7 +45,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="C4")</t>
+jx:area(lastCell="F10")</t>
         </r>
       </text>
     </comment>
@@ -75,8 +79,71 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Author:
+jx:area(lastCell="Q100")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items="students" var="student" lastCell="B5")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +166,33 @@
   </si>
   <si>
     <t>${student.birthDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${message}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 测试终端分布</t>
+  </si>
+  <si>
+    <t>品牌分布</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>汇总</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>${student.age}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +200,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,16 +230,51 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF2C4A93"/>
+      <name val="Microsoft Yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Microsoft Yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft Yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0C0E7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2CB663"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -153,12 +282,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -174,6 +339,260 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="0" i="0" u="none" strike="noStrike">
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>品牌分布</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="936255440"/>
+        <c:axId val="936257072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="936255440"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="936257072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="936257072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:prstDash val="solid"/>
+            <a:bevel/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:crossAx val="936257072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>29306</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>256441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>271096</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>65942</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="结果概述"/>
+      <sheetName val="结果概述 (2)"/>
+      <sheetName val="性能综述"/>
+      <sheetName val="终端详情"/>
+      <sheetName val="适配信息"/>
+      <sheetName val="Worksheet"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>汇总</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>三星</v>
+          </cell>
+          <cell r="B20">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>小米</v>
+          </cell>
+          <cell r="B21">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>金立</v>
+          </cell>
+          <cell r="B22">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>华为</v>
+          </cell>
+          <cell r="B23">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>OnePlus</v>
+          </cell>
+          <cell r="B24">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>酷派</v>
+          </cell>
+          <cell r="B25">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>中兴</v>
+          </cell>
+          <cell r="B26">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>魅族</v>
+          </cell>
+          <cell r="B27">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -463,21 +882,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="18.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3"/>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -488,7 +908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -497,6 +917,16 @@
       </c>
       <c r="C4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -505,4 +935,112 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11"/>
+    <row r="2" spans="1:11" ht="21">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="18">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>